--- a/grupos/2AEM - Estadisticos 20202.xlsx
+++ b/grupos/2AEM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="166">
   <si>
     <t>Materia</t>
   </si>
@@ -200,21 +200,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
+    <t>Rosas Aguilar Claudia Leonor</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>Aurioles Maldonado Luis Gustavo</t>
+  </si>
+  <si>
     <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
-    <t>García Sánchez Magda Bexabe</t>
-  </si>
-  <si>
-    <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>Aurioles Maldonado Luis Gustavo</t>
-  </si>
-  <si>
     <t>Cruz Alejo José Armando</t>
   </si>
   <si>
@@ -236,21 +236,57 @@
     <t>ADELL</t>
   </si>
   <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>BUENO</t>
+  </si>
+  <si>
     <t>CORTEZ</t>
   </si>
   <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>COLOTL</t>
+  </si>
+  <si>
     <t>CORTES</t>
   </si>
   <si>
     <t>CORONA</t>
   </si>
   <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
     <t>NIEVES</t>
   </si>
   <si>
@@ -260,15 +296,36 @@
     <t>PEREZ</t>
   </si>
   <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>TZANAHUA</t>
   </si>
   <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>XOCUA</t>
   </si>
   <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
@@ -278,21 +335,48 @@
     <t>AGUILAR</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>MOLOHUA</t>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
   </si>
   <si>
     <t>HERRERA</t>
   </si>
   <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
     <t>NAZARIO</t>
   </si>
   <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
     <t>TEXOCO</t>
   </si>
   <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
     <t>ACOSTA</t>
   </si>
   <si>
@@ -302,12 +386,24 @@
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>VINALAY</t>
+  </si>
+  <si>
     <t>YOPIHUA</t>
   </si>
   <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
     <t>CASTRO</t>
   </si>
   <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>BERISTAIN</t>
   </si>
   <si>
@@ -320,24 +416,66 @@
     <t>CRISTOPHER ALAIN</t>
   </si>
   <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>JORGE LUIS</t>
+  </si>
+  <si>
     <t>CRISTIAN JAVIER</t>
   </si>
   <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>ALMA RUBI</t>
+  </si>
+  <si>
     <t>NEHIZER JAEL</t>
   </si>
   <si>
     <t>JOSUE</t>
   </si>
   <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>ALEXIS MANUEL</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL</t>
+  </si>
+  <si>
     <t>IRVING URIEL</t>
   </si>
   <si>
+    <t>DIEGO ADELFO</t>
+  </si>
+  <si>
     <t>EDGAR</t>
   </si>
   <si>
+    <t>ANDRES NOEL</t>
+  </si>
+  <si>
     <t>OCTAVIO</t>
   </si>
   <si>
+    <t>JESUS HAZAEL</t>
+  </si>
+  <si>
     <t>JESUS DARIO</t>
   </si>
   <si>
@@ -347,6 +485,18 @@
     <t>JOSE ABRAHAM</t>
   </si>
   <si>
+    <t>ANGEL SAID</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>JOSE MATEO</t>
+  </si>
+  <si>
     <t>XIMENA</t>
   </si>
   <si>
@@ -356,6 +506,9 @@
     <t>DIANA ARELI</t>
   </si>
   <si>
+    <t>ANGEL AMILCAR</t>
+  </si>
+  <si>
     <t>MARCOS URIEL</t>
   </si>
   <si>
@@ -363,159 +516,6 @@
   </si>
   <si>
     <t>MARTIN</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>BUENO</t>
-  </si>
-  <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>COLOTL</t>
-  </si>
-  <si>
-    <t>COYOHUA</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>VINALAY</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>JORGE LUIS</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>ALMA RUBI</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>ALEXIS MANUEL</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL</t>
-  </si>
-  <si>
-    <t>DIEGO ADELFO</t>
-  </si>
-  <si>
-    <t>ANDRES NOEL</t>
-  </si>
-  <si>
-    <t>JESUS HAZAEL</t>
-  </si>
-  <si>
-    <t>ANGEL SAID</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>DULCE MARIA</t>
-  </si>
-  <si>
-    <t>JOSE MATEO</t>
-  </si>
-  <si>
-    <t>ANGEL AMILCAR</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1031,10 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M4">
         <v>6</v>
@@ -1046,13 +1046,13 @@
         <v>6</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S4">
         <v>6</v>
@@ -1070,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="X4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y4">
         <v>7</v>
@@ -1090,10 +1090,10 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1108,10 +1108,10 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -1123,13 +1123,13 @@
         <v>6</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>6</v>
@@ -1141,13 +1141,13 @@
         <v>6</v>
       </c>
       <c r="V5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y5">
         <v>6</v>
@@ -1200,13 +1200,13 @@
         <v>7</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S6">
         <v>6</v>
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W6">
         <v>10</v>
@@ -1277,13 +1277,13 @@
         <v>6</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S7">
         <v>7</v>
@@ -1295,10 +1295,10 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X7">
         <v>7</v>
@@ -1354,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S8">
         <v>7</v>
@@ -1375,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="W8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X8">
         <v>8</v>
@@ -1431,13 +1431,13 @@
         <v>8</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S9">
         <v>7</v>
@@ -1508,13 +1508,13 @@
         <v>7</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S10">
         <v>6</v>
@@ -1526,7 +1526,7 @@
         <v>7</v>
       </c>
       <c r="V10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W10">
         <v>10</v>
@@ -1585,13 +1585,13 @@
         <v>7</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S11">
         <v>8</v>
@@ -1629,10 +1629,10 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -1647,10 +1647,10 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>6</v>
@@ -1662,13 +1662,13 @@
         <v>6</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S12">
         <v>6</v>
@@ -1683,10 +1683,10 @@
         <v>6</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -1706,10 +1706,10 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -1724,10 +1724,10 @@
         <v>5</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>6</v>
@@ -1739,13 +1739,13 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S13">
         <v>6</v>
@@ -1757,13 +1757,13 @@
         <v>5</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y13">
         <v>7</v>
@@ -1783,10 +1783,10 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1801,10 +1801,10 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>6</v>
@@ -1816,13 +1816,13 @@
         <v>6</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S14">
         <v>6</v>
@@ -1834,13 +1834,13 @@
         <v>6</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y14">
         <v>6</v>
@@ -1893,13 +1893,13 @@
         <v>9</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S15">
         <v>7</v>
@@ -1937,10 +1937,10 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1955,10 +1955,10 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>6</v>
@@ -1970,13 +1970,13 @@
         <v>6</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -1991,10 +1991,10 @@
         <v>6</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y16">
         <v>6</v>
@@ -2047,13 +2047,13 @@
         <v>8</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S17">
         <v>7</v>
@@ -2065,10 +2065,10 @@
         <v>8</v>
       </c>
       <c r="V17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X17">
         <v>8</v>
@@ -2091,10 +2091,10 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -2109,10 +2109,10 @@
         <v>5</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M18">
         <v>6</v>
@@ -2124,13 +2124,13 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S18">
         <v>6</v>
@@ -2142,13 +2142,13 @@
         <v>5</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y18">
         <v>6</v>
@@ -2201,13 +2201,13 @@
         <v>6</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S19">
         <v>9</v>
@@ -2222,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="W19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X19">
         <v>7</v>
@@ -2278,13 +2278,13 @@
         <v>6</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S20">
         <v>9</v>
@@ -2355,13 +2355,13 @@
         <v>6</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S21">
         <v>6</v>
@@ -2373,10 +2373,10 @@
         <v>6</v>
       </c>
       <c r="V21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X21">
         <v>9</v>
@@ -2432,13 +2432,13 @@
         <v>6</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S22">
         <v>6</v>
@@ -2450,10 +2450,10 @@
         <v>6</v>
       </c>
       <c r="V22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X22">
         <v>7</v>
@@ -2509,13 +2509,13 @@
         <v>8</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S23">
         <v>7</v>
@@ -2586,13 +2586,13 @@
         <v>6</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S24">
         <v>7</v>
@@ -2604,7 +2604,7 @@
         <v>6</v>
       </c>
       <c r="V24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W24">
         <v>6</v>
@@ -2630,7 +2630,7 @@
         <v>7</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>7</v>
@@ -2648,7 +2648,7 @@
         <v>7</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>7</v>
@@ -2663,13 +2663,13 @@
         <v>6</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S25">
         <v>6</v>
@@ -2684,7 +2684,7 @@
         <v>7</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X25">
         <v>7</v>
@@ -2740,13 +2740,13 @@
         <v>7</v>
       </c>
       <c r="P26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S26">
         <v>6</v>
@@ -2784,10 +2784,10 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2802,10 +2802,10 @@
         <v>5</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M27">
         <v>6</v>
@@ -2817,13 +2817,13 @@
         <v>5</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S27">
         <v>6</v>
@@ -2835,13 +2835,13 @@
         <v>5</v>
       </c>
       <c r="V27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y27">
         <v>6</v>
@@ -2861,10 +2861,10 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -2879,10 +2879,10 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M28">
         <v>6</v>
@@ -2894,13 +2894,13 @@
         <v>5</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S28">
         <v>6</v>
@@ -2912,13 +2912,13 @@
         <v>5</v>
       </c>
       <c r="V28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y28">
         <v>6</v>
@@ -2938,10 +2938,10 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2956,10 +2956,10 @@
         <v>5</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <v>6</v>
@@ -2971,13 +2971,13 @@
         <v>6</v>
       </c>
       <c r="P29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S29">
         <v>6</v>
@@ -2992,10 +2992,10 @@
         <v>6</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y29">
         <v>6</v>
@@ -3048,13 +3048,13 @@
         <v>6</v>
       </c>
       <c r="P30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S30">
         <v>6</v>
@@ -3072,7 +3072,7 @@
         <v>8</v>
       </c>
       <c r="X30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y30">
         <v>6</v>
@@ -3125,13 +3125,13 @@
         <v>8</v>
       </c>
       <c r="P31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S31">
         <v>7</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="W31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X31">
         <v>8</v>
@@ -3202,13 +3202,13 @@
         <v>6</v>
       </c>
       <c r="P32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S32">
         <v>6</v>
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="V32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W32">
         <v>7</v>
       </c>
       <c r="X32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y32">
         <v>7</v>
@@ -3279,13 +3279,13 @@
         <v>6</v>
       </c>
       <c r="P33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S33">
         <v>6</v>
@@ -3297,13 +3297,13 @@
         <v>6</v>
       </c>
       <c r="V33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y33">
         <v>7</v>
@@ -3356,13 +3356,13 @@
         <v>8</v>
       </c>
       <c r="P34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S34">
         <v>6</v>
@@ -3400,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -3418,7 +3418,7 @@
         <v>5</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
         <v>6</v>
@@ -3433,13 +3433,13 @@
         <v>6</v>
       </c>
       <c r="P35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S35">
         <v>6</v>
@@ -3451,13 +3451,13 @@
         <v>6</v>
       </c>
       <c r="V35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y35">
         <v>7</v>
@@ -3477,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <v>9</v>
@@ -3495,7 +3495,7 @@
         <v>8</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L36">
         <v>6</v>
@@ -3510,13 +3510,13 @@
         <v>6</v>
       </c>
       <c r="P36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S36">
         <v>6</v>
@@ -3528,13 +3528,13 @@
         <v>8</v>
       </c>
       <c r="V36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y36">
         <v>7</v>
@@ -3557,7 +3557,7 @@
         <v>6</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>8</v>
@@ -3572,10 +3572,10 @@
         <v>5</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M37">
         <v>6</v>
@@ -3587,13 +3587,13 @@
         <v>5</v>
       </c>
       <c r="P37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S37">
         <v>6</v>
@@ -3605,13 +3605,13 @@
         <v>5</v>
       </c>
       <c r="V37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W37">
         <v>6</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y37">
         <v>7</v>
@@ -3664,13 +3664,13 @@
         <v>6</v>
       </c>
       <c r="P38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S38">
         <v>6</v>
@@ -3682,10 +3682,10 @@
         <v>6</v>
       </c>
       <c r="V38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X38">
         <v>7</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G39">
         <v>6</v>
@@ -3726,10 +3726,10 @@
         <v>7</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M39">
         <v>6</v>
@@ -3741,13 +3741,13 @@
         <v>6</v>
       </c>
       <c r="P39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S39">
         <v>6</v>
@@ -3762,10 +3762,10 @@
         <v>6</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y39">
         <v>6</v>
@@ -3818,13 +3818,13 @@
         <v>6</v>
       </c>
       <c r="P40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S40">
         <v>7</v>
@@ -3836,13 +3836,13 @@
         <v>7</v>
       </c>
       <c r="V40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W40">
         <v>8</v>
       </c>
       <c r="X40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y40">
         <v>7</v>
@@ -3862,7 +3862,7 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -3880,10 +3880,10 @@
         <v>6</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M41">
         <v>7</v>
@@ -3895,13 +3895,13 @@
         <v>6</v>
       </c>
       <c r="P41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S41">
         <v>6</v>
@@ -3913,10 +3913,10 @@
         <v>6</v>
       </c>
       <c r="V41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X41">
         <v>6</v>
@@ -3939,10 +3939,10 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>8</v>
@@ -3957,10 +3957,10 @@
         <v>5</v>
       </c>
       <c r="K42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M42">
         <v>6</v>
@@ -3972,13 +3972,13 @@
         <v>5</v>
       </c>
       <c r="P42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S42">
         <v>6</v>
@@ -3990,13 +3990,13 @@
         <v>5</v>
       </c>
       <c r="V42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y42">
         <v>7</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -4067,30 +4067,30 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>56.41</v>
+        <v>69.23</v>
       </c>
       <c r="G2">
-        <v>5.13</v>
+        <v>30.77</v>
       </c>
       <c r="H2">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>43.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -4099,30 +4099,30 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>64.09999999999999</v>
+        <v>74.36</v>
       </c>
       <c r="G3">
-        <v>5.13</v>
+        <v>25.64</v>
       </c>
       <c r="H3">
         <v>7.2</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>35.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -4131,19 +4131,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>74.36</v>
+        <v>84.62</v>
       </c>
       <c r="G4">
-        <v>25.64</v>
+        <v>15.38</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -4163,19 +4163,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>84.62</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4255,7 +4255,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4283,626 +4283,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920008</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920362</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920362</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>20330051920016</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>20330051920016</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>20330051920018</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>20330051920018</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>20330051920021</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>20330051920024</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>20330051920024</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>20330051920025</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>20330051920025</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20330051920026</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>20330051920026</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>20330051920030</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>20330051920031</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>20330051920031</v>
-      </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>20330051920033</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>20330051920035</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>20330051920035</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>20330051920037</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>20330051920037</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>20330051920038</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>20330051920038</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4947,13 +4327,13 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4964,282 +4344,282 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920005</v>
+        <v>20330051920361</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920008</v>
+        <v>20330051920003</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920362</v>
+        <v>20330051920004</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920016</v>
+        <v>20330051920005</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920018</v>
+        <v>20330051920006</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920024</v>
+        <v>20330051920007</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920025</v>
+        <v>20330051920008</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920026</v>
+        <v>20330051920362</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920031</v>
+        <v>20330051920009</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920035</v>
+        <v>20330051920010</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920037</v>
+        <v>20330051920011</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920038</v>
+        <v>20330051920012</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920021</v>
+        <v>20330051920013</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920030</v>
+        <v>20330051920014</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920033</v>
+        <v>20330051920015</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920361</v>
+        <v>20330051920016</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5247,16 +4627,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920003</v>
+        <v>20330051920017</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5264,16 +4644,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920004</v>
+        <v>20330051920018</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5281,16 +4661,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920006</v>
+        <v>20330051920363</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5298,16 +4678,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920007</v>
+        <v>20330051920021</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5315,16 +4695,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920009</v>
+        <v>20330051920023</v>
       </c>
       <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5332,16 +4712,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920010</v>
+        <v>20330051920024</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5349,13 +4729,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920011</v>
+        <v>20330051920025</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
         <v>153</v>
@@ -5366,13 +4746,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920012</v>
+        <v>20330051920026</v>
       </c>
       <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
         <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
       </c>
       <c r="D27" t="s">
         <v>154</v>
@@ -5383,13 +4763,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920013</v>
+        <v>20330051920060</v>
       </c>
       <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
         <v>122</v>
-      </c>
-      <c r="C28" t="s">
-        <v>137</v>
       </c>
       <c r="D28" t="s">
         <v>155</v>
@@ -5400,13 +4780,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920014</v>
+        <v>20330051920027</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
         <v>156</v>
@@ -5417,13 +4797,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920015</v>
+        <v>20330051920028</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
         <v>157</v>
@@ -5434,13 +4814,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920017</v>
+        <v>20330051920029</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
         <v>158</v>
@@ -5451,13 +4831,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920363</v>
+        <v>20330051920030</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
         <v>159</v>
@@ -5468,13 +4848,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920023</v>
+        <v>20330051920031</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
         <v>160</v>
@@ -5485,16 +4865,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920060</v>
+        <v>20330051920032</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5502,16 +4882,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920027</v>
+        <v>20330051920033</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5519,16 +4899,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920028</v>
+        <v>20330051920034</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5536,16 +4916,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20330051920029</v>
+        <v>20330051920035</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5553,16 +4933,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20330051920032</v>
+        <v>20330051920036</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5570,16 +4950,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20330051920034</v>
+        <v>20330051920037</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5587,16 +4967,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>20330051920036</v>
+        <v>20330051920038</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5609,7 +4989,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5644,117 +5024,117 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920002</v>
+        <v>20330051920001</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920002</v>
+        <v>20330051920001</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920362</v>
+        <v>20330051920005</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920362</v>
+        <v>20330051920005</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920016</v>
+        <v>20330051920362</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5762,22 +5142,22 @@
         <v>20330051920016</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5785,65 +5165,65 @@
         <v>20330051920026</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920026</v>
+        <v>20330051920033</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920033</v>
+        <v>20330051920035</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -5851,117 +5231,25 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920033</v>
+        <v>20330051920037</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920035</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920035</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920021</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920030</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2AEM - Estadisticos 20202.xlsx
+++ b/grupos/2AEM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="166">
   <si>
     <t>Materia</t>
   </si>
@@ -203,10 +203,10 @@
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
     <t>Aurioles Maldonado Luis Gustavo</t>
@@ -4079,7 +4079,7 @@
         <v>30.77</v>
       </c>
       <c r="H2">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -4099,19 +4099,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>74.36</v>
+        <v>84.62</v>
       </c>
       <c r="G3">
-        <v>25.64</v>
+        <v>15.38</v>
       </c>
       <c r="H3">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -4131,19 +4131,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>84.62</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4989,7 +4989,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5019,24 +5019,24 @@
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920001</v>
+        <v>20330051920008</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -5047,16 +5047,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920001</v>
+        <v>20330051920008</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5070,19 +5070,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920005</v>
+        <v>20330051920018</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -5093,16 +5093,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920005</v>
+        <v>20330051920018</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -5116,22 +5116,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920362</v>
+        <v>20330051920024</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5139,16 +5139,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920016</v>
+        <v>20330051920024</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -5162,22 +5162,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920026</v>
+        <v>20330051920025</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5185,22 +5185,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920033</v>
+        <v>20330051920025</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5208,22 +5208,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920035</v>
+        <v>20330051920031</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -5231,25 +5231,209 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920037</v>
+        <v>20330051920031</v>
       </c>
       <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920038</v>
+      </c>
+      <c r="B12" t="s">
         <v>102</v>
       </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="G11">
-        <v>6</v>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920038</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920362</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920026</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920035</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
